--- a/ig/ch-epl/StructureDefinition-ch-idmp-manufactureditemdefinition.xlsx
+++ b/ig/ch-epl/StructureDefinition-ch-idmp-manufactureditemdefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:35:11+00:00</t>
+    <t>2025-12-11T12:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -839,7 +839,7 @@
     <t>ManufacturedItemDefinition.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -880,7 +880,7 @@
     <t>This value set includes all substance codes from SNOMED CT - provided as an exemplar value set.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/substance-codes|5.0.0</t>
   </si>
   <si>
     <t>Manufactured Item.Ingredient (see also FHIR Ingredient resource)</t>
@@ -937,7 +937,7 @@
     <t>This value set includes all observable entity codes from SNOMED CT - provided as an exemplar value set.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes|5.0.0</t>
   </si>
   <si>
     <t>Physical Characteristics, all attributes</t>
@@ -947,7 +947,7 @@
   </si>
   <si>
     <t>CodeableConcept
-QuantitydatebooleanmarkdownAttachmentReference(Binary)</t>
+QuantitydatebooleanmarkdownAttachmentReference(Binary|5.0.0)</t>
   </si>
   <si>
     <t>A value for the characteristic</t>
@@ -1056,7 +1056,7 @@
     <t>ManufacturedItemDefinition.component.constituent.hasIngredient</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(Ingredient)
+    <t xml:space="preserve">CodeableReference(Ingredient|5.0.0)
 </t>
   </si>
   <si>
@@ -1407,7 +1407,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="49.34765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
